--- a/data/trans_orig/MCS12_SP_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE87D539-7E73-4795-AF74-01435DDB1868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E058706-95B5-44F8-ADE2-EA43DA1351CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFC25FFC-4827-4744-AF32-805D0014171B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2DB00062-078E-47B8-A41E-7BB4DE2E8DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+  <si>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -299,7 +299,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>29,75%</t>
@@ -518,7 +518,7 @@
     <t>73,56%</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>26,12%</t>
@@ -731,199 +731,217 @@
     <t>78,02%</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F605C80-2168-465A-9F5F-30EC9F54CF31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182F2A7A-F249-4FBF-BFF0-ACE4E1912E53}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1486,7 +1504,7 @@
         <v>691</v>
       </c>
       <c r="N4" s="7">
-        <v>709251</v>
+        <v>709250</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>15</v>
@@ -1588,7 +1606,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -1662,7 +1680,7 @@
         <v>1409</v>
       </c>
       <c r="D8" s="7">
-        <v>1446984</v>
+        <v>1446985</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1713,7 +1731,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -1951,7 +1969,7 @@
         <v>1463</v>
       </c>
       <c r="N13" s="7">
-        <v>1507676</v>
+        <v>1507677</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>73</v>
@@ -1972,7 +1990,7 @@
         <v>2619</v>
       </c>
       <c r="D14" s="7">
-        <v>2666005</v>
+        <v>2666004</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -1987,7 +2005,7 @@
         <v>2429</v>
       </c>
       <c r="I14" s="7">
-        <v>2482061</v>
+        <v>2482060</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -2023,7 +2041,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -2038,7 +2056,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -2053,7 +2071,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -2086,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B59687-77BB-43AB-9461-1A179E448B44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8BE3B0-7D85-4673-ADDA-DE0AFF74FD44}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2222,7 +2240,7 @@
         <v>499</v>
       </c>
       <c r="I4" s="7">
-        <v>534607</v>
+        <v>534608</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>90</v>
@@ -2324,7 +2342,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -2598,7 +2616,7 @@
         <v>714</v>
       </c>
       <c r="N11" s="7">
-        <v>783702</v>
+        <v>783703</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2649,7 +2667,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -2837,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC930D1F-DDF4-473D-8B6C-E08C306A9088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9788B026-91EC-46F3-880B-46B1428A3037}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3349,7 +3367,7 @@
         <v>845</v>
       </c>
       <c r="N11" s="7">
-        <v>902149</v>
+        <v>902150</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>210</v>
@@ -3400,7 +3418,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -3588,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA87F4-CB4D-4D36-B6B2-4864D0453E20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7062E60F-B98F-4A38-B01D-E3CECD761B1A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,7 +3727,7 @@
         <v>196</v>
       </c>
       <c r="D4" s="7">
-        <v>152626</v>
+        <v>140917</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3724,7 +3742,7 @@
         <v>552</v>
       </c>
       <c r="I4" s="7">
-        <v>333064</v>
+        <v>294454</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -3739,16 +3757,16 @@
         <v>748</v>
       </c>
       <c r="N4" s="7">
-        <v>485690</v>
+        <v>435370</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,46 +3778,46 @@
         <v>489</v>
       </c>
       <c r="D5" s="7">
-        <v>384261</v>
+        <v>369479</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>855</v>
       </c>
       <c r="I5" s="7">
-        <v>491979</v>
+        <v>451102</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1344</v>
       </c>
       <c r="N5" s="7">
-        <v>876240</v>
+        <v>820581</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,7 +3829,7 @@
         <v>685</v>
       </c>
       <c r="D6" s="7">
-        <v>536887</v>
+        <v>510396</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -3826,7 +3844,7 @@
         <v>1407</v>
       </c>
       <c r="I6" s="7">
-        <v>825043</v>
+        <v>745556</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -3841,7 +3859,7 @@
         <v>2092</v>
       </c>
       <c r="N6" s="7">
-        <v>1361930</v>
+        <v>1255951</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -3864,46 +3882,46 @@
         <v>415</v>
       </c>
       <c r="D7" s="7">
-        <v>385986</v>
+        <v>362967</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>776</v>
       </c>
       <c r="I7" s="7">
-        <v>628349</v>
+        <v>675263</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>1191</v>
       </c>
       <c r="N7" s="7">
-        <v>1014335</v>
+        <v>1038230</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,46 +3933,46 @@
         <v>1568</v>
       </c>
       <c r="D8" s="7">
-        <v>1766746</v>
+        <v>1918579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>2135</v>
       </c>
       <c r="I8" s="7">
-        <v>1614921</v>
+        <v>1556833</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>3703</v>
       </c>
       <c r="N8" s="7">
-        <v>3381667</v>
+        <v>3475412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3984,7 @@
         <v>1983</v>
       </c>
       <c r="D9" s="7">
-        <v>2152732</v>
+        <v>2281546</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -3981,7 +3999,7 @@
         <v>2911</v>
       </c>
       <c r="I9" s="7">
-        <v>2243270</v>
+        <v>2232096</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -3996,7 +4014,7 @@
         <v>4894</v>
       </c>
       <c r="N9" s="7">
-        <v>4396002</v>
+        <v>4513642</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -4019,46 +4037,46 @@
         <v>138</v>
       </c>
       <c r="D10" s="7">
-        <v>129188</v>
+        <v>126309</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
         <v>250</v>
       </c>
       <c r="I10" s="7">
-        <v>168570</v>
+        <v>155280</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>388</v>
       </c>
       <c r="N10" s="7">
-        <v>297757</v>
+        <v>281589</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,46 +4088,46 @@
         <v>541</v>
       </c>
       <c r="D11" s="7">
-        <v>541530</v>
+        <v>518152</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>751</v>
       </c>
       <c r="I11" s="7">
-        <v>542078</v>
+        <v>502309</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>1292</v>
       </c>
       <c r="N11" s="7">
-        <v>1083609</v>
+        <v>1020461</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4139,7 @@
         <v>679</v>
       </c>
       <c r="D12" s="7">
-        <v>670718</v>
+        <v>644461</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -4136,7 +4154,7 @@
         <v>1001</v>
       </c>
       <c r="I12" s="7">
-        <v>710648</v>
+        <v>657589</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -4151,7 +4169,7 @@
         <v>1680</v>
       </c>
       <c r="N12" s="7">
-        <v>1381366</v>
+        <v>1302050</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -4174,46 +4192,46 @@
         <v>749</v>
       </c>
       <c r="D13" s="7">
-        <v>667800</v>
+        <v>630193</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>1578</v>
       </c>
       <c r="I13" s="7">
-        <v>1129983</v>
+        <v>1124997</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>2327</v>
       </c>
       <c r="N13" s="7">
-        <v>1797782</v>
+        <v>1755189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,46 +4243,46 @@
         <v>2598</v>
       </c>
       <c r="D14" s="7">
-        <v>2692538</v>
+        <v>2806210</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>3741</v>
       </c>
       <c r="I14" s="7">
-        <v>2648977</v>
+        <v>2510243</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>6339</v>
       </c>
       <c r="N14" s="7">
-        <v>5341516</v>
+        <v>5316454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4294,7 @@
         <v>3347</v>
       </c>
       <c r="D15" s="7">
-        <v>3360338</v>
+        <v>3436403</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -4291,7 +4309,7 @@
         <v>5319</v>
       </c>
       <c r="I15" s="7">
-        <v>3778960</v>
+        <v>3635240</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4306,7 +4324,7 @@
         <v>8666</v>
       </c>
       <c r="N15" s="7">
-        <v>7139298</v>
+        <v>7071643</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
